--- a/po_analysis_by_asin/B0CTTVFWHM_po_data.xlsx
+++ b/po_analysis_by_asin/B0CTTVFWHM_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45334</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>252</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45341</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>18</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45348</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>54</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45362</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>24</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45376</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>12</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45390</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>24</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45404</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>24</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45418</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>24</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45432</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>24</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45439</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>252</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45453</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>192</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45460</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>36</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45467</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>12</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45474</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>48</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45481</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>96</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45495</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>12</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45502</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B18" t="n">
         <v>420</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45537</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B19" t="n">
         <v>204</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45544</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B20" t="n">
         <v>60</v>
@@ -604,7 +604,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45551</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B21" t="n">
         <v>348</v>
@@ -612,7 +612,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45572</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B22" t="n">
         <v>648</v>
@@ -620,7 +620,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45579</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B23" t="n">
         <v>132</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45586</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B24" t="n">
         <v>444</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45323</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>324</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45352</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>36</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45383</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>48</v>
@@ -691,7 +691,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45413</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>300</v>
@@ -699,7 +699,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45444</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>240</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45474</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>180</v>
@@ -715,7 +715,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45505</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>396</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45536</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>612</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45566</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>1224</v>

--- a/po_analysis_by_asin/B0CTTVFWHM_po_data.xlsx
+++ b/po_analysis_by_asin/B0CTTVFWHM_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -661,7 +662,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -735,6 +736,481 @@
       </c>
       <c r="B10" t="n">
         <v>1224</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-198.3241527132459</v>
+      </c>
+      <c r="D2" t="n">
+        <v>178.5703363088063</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-178.2657499867777</v>
+      </c>
+      <c r="D3" t="n">
+        <v>172.8104491280525</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>11</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-170.9867103944837</v>
+      </c>
+      <c r="D4" t="n">
+        <v>187.757278537409</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>28</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-139.6726109533705</v>
+      </c>
+      <c r="D5" t="n">
+        <v>209.2817256999884</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>45</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-148.7373472301541</v>
+      </c>
+      <c r="D6" t="n">
+        <v>229.3982051970966</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>62</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-123.6661000712934</v>
+      </c>
+      <c r="D7" t="n">
+        <v>246.7595756912527</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>80</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-109.7345919180668</v>
+      </c>
+      <c r="D8" t="n">
+        <v>265.9408929372653</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>97</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-79.91760245527222</v>
+      </c>
+      <c r="D9" t="n">
+        <v>278.6537294593462</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>114</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-65.91557937525604</v>
+      </c>
+      <c r="D10" t="n">
+        <v>289.970131852298</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>122</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-59.61272625095391</v>
+      </c>
+      <c r="D11" t="n">
+        <v>282.0980781380313</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>139</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-33.66415700147701</v>
+      </c>
+      <c r="D12" t="n">
+        <v>321.3868774401552</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>148</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-26.98625571248228</v>
+      </c>
+      <c r="D13" t="n">
+        <v>323.4615568403915</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>156</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-19.76949722188246</v>
+      </c>
+      <c r="D14" t="n">
+        <v>346.5136347263128</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>165</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-13.64783063496352</v>
+      </c>
+      <c r="D15" t="n">
+        <v>333.7400452764577</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>173</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.4624870820814655</v>
+      </c>
+      <c r="D16" t="n">
+        <v>352.8171525317168</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>190</v>
+      </c>
+      <c r="C17" t="n">
+        <v>12.60876910611277</v>
+      </c>
+      <c r="D17" t="n">
+        <v>366.3830082447832</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>199</v>
+      </c>
+      <c r="C18" t="n">
+        <v>22.75238214981618</v>
+      </c>
+      <c r="D18" t="n">
+        <v>378.6545782801163</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>242</v>
+      </c>
+      <c r="C19" t="n">
+        <v>65.86082950940873</v>
+      </c>
+      <c r="D19" t="n">
+        <v>421.8559169064546</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>250</v>
+      </c>
+      <c r="C20" t="n">
+        <v>69.72591583894142</v>
+      </c>
+      <c r="D20" t="n">
+        <v>427.6914762306068</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>259</v>
+      </c>
+      <c r="C21" t="n">
+        <v>74.63996487361314</v>
+      </c>
+      <c r="D21" t="n">
+        <v>434.0647454453477</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>284</v>
+      </c>
+      <c r="C22" t="n">
+        <v>104.214645518471</v>
+      </c>
+      <c r="D22" t="n">
+        <v>459.8036844145104</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>293</v>
+      </c>
+      <c r="C23" t="n">
+        <v>101.4842821476873</v>
+      </c>
+      <c r="D23" t="n">
+        <v>469.3754779635182</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>301</v>
+      </c>
+      <c r="C24" t="n">
+        <v>125.5808776790361</v>
+      </c>
+      <c r="D24" t="n">
+        <v>466.7198119945258</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>310</v>
+      </c>
+      <c r="C25" t="n">
+        <v>132.622938810532</v>
+      </c>
+      <c r="D25" t="n">
+        <v>482.909386053203</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>318</v>
+      </c>
+      <c r="C26" t="n">
+        <v>143.995361729911</v>
+      </c>
+      <c r="D26" t="n">
+        <v>497.9373683136034</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>327</v>
+      </c>
+      <c r="C27" t="n">
+        <v>147.3058420768375</v>
+      </c>
+      <c r="D27" t="n">
+        <v>499.9948731158906</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>335</v>
+      </c>
+      <c r="C28" t="n">
+        <v>160.5863248086</v>
+      </c>
+      <c r="D28" t="n">
+        <v>524.4128543358004</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>344</v>
+      </c>
+      <c r="C29" t="n">
+        <v>165.8005338144984</v>
+      </c>
+      <c r="D29" t="n">
+        <v>519.877707100435</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>352</v>
+      </c>
+      <c r="C30" t="n">
+        <v>167.7233314549434</v>
+      </c>
+      <c r="D30" t="n">
+        <v>538.7437256008261</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>361</v>
+      </c>
+      <c r="C31" t="n">
+        <v>183.2142780412522</v>
+      </c>
+      <c r="D31" t="n">
+        <v>535.0811445924069</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>369</v>
+      </c>
+      <c r="C32" t="n">
+        <v>185.4561864078309</v>
+      </c>
+      <c r="D32" t="n">
+        <v>553.0464348969821</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CTTVFWHM_po_data.xlsx
+++ b/po_analysis_by_asin/B0CTTVFWHM_po_data.xlsx
@@ -749,7 +749,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -768,16 +768,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -786,12 +776,6 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
-        <v>-198.3241527132459</v>
-      </c>
-      <c r="D2" t="n">
-        <v>178.5703363088063</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -800,12 +784,6 @@
       <c r="B3" t="n">
         <v>3</v>
       </c>
-      <c r="C3" t="n">
-        <v>-178.2657499867777</v>
-      </c>
-      <c r="D3" t="n">
-        <v>172.8104491280525</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -814,12 +792,6 @@
       <c r="B4" t="n">
         <v>11</v>
       </c>
-      <c r="C4" t="n">
-        <v>-170.9867103944837</v>
-      </c>
-      <c r="D4" t="n">
-        <v>187.757278537409</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -828,12 +800,6 @@
       <c r="B5" t="n">
         <v>28</v>
       </c>
-      <c r="C5" t="n">
-        <v>-139.6726109533705</v>
-      </c>
-      <c r="D5" t="n">
-        <v>209.2817256999884</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -842,12 +808,6 @@
       <c r="B6" t="n">
         <v>45</v>
       </c>
-      <c r="C6" t="n">
-        <v>-148.7373472301541</v>
-      </c>
-      <c r="D6" t="n">
-        <v>229.3982051970966</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -856,12 +816,6 @@
       <c r="B7" t="n">
         <v>62</v>
       </c>
-      <c r="C7" t="n">
-        <v>-123.6661000712934</v>
-      </c>
-      <c r="D7" t="n">
-        <v>246.7595756912527</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -870,12 +824,6 @@
       <c r="B8" t="n">
         <v>80</v>
       </c>
-      <c r="C8" t="n">
-        <v>-109.7345919180668</v>
-      </c>
-      <c r="D8" t="n">
-        <v>265.9408929372653</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -884,12 +832,6 @@
       <c r="B9" t="n">
         <v>97</v>
       </c>
-      <c r="C9" t="n">
-        <v>-79.91760245527222</v>
-      </c>
-      <c r="D9" t="n">
-        <v>278.6537294593462</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -898,12 +840,6 @@
       <c r="B10" t="n">
         <v>114</v>
       </c>
-      <c r="C10" t="n">
-        <v>-65.91557937525604</v>
-      </c>
-      <c r="D10" t="n">
-        <v>289.970131852298</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -912,12 +848,6 @@
       <c r="B11" t="n">
         <v>122</v>
       </c>
-      <c r="C11" t="n">
-        <v>-59.61272625095391</v>
-      </c>
-      <c r="D11" t="n">
-        <v>282.0980781380313</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -926,12 +856,6 @@
       <c r="B12" t="n">
         <v>139</v>
       </c>
-      <c r="C12" t="n">
-        <v>-33.66415700147701</v>
-      </c>
-      <c r="D12" t="n">
-        <v>321.3868774401552</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -940,12 +864,6 @@
       <c r="B13" t="n">
         <v>148</v>
       </c>
-      <c r="C13" t="n">
-        <v>-26.98625571248228</v>
-      </c>
-      <c r="D13" t="n">
-        <v>323.4615568403915</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -954,12 +872,6 @@
       <c r="B14" t="n">
         <v>156</v>
       </c>
-      <c r="C14" t="n">
-        <v>-19.76949722188246</v>
-      </c>
-      <c r="D14" t="n">
-        <v>346.5136347263128</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -968,12 +880,6 @@
       <c r="B15" t="n">
         <v>165</v>
       </c>
-      <c r="C15" t="n">
-        <v>-13.64783063496352</v>
-      </c>
-      <c r="D15" t="n">
-        <v>333.7400452764577</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -982,12 +888,6 @@
       <c r="B16" t="n">
         <v>173</v>
       </c>
-      <c r="C16" t="n">
-        <v>-0.4624870820814655</v>
-      </c>
-      <c r="D16" t="n">
-        <v>352.8171525317168</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -996,12 +896,6 @@
       <c r="B17" t="n">
         <v>190</v>
       </c>
-      <c r="C17" t="n">
-        <v>12.60876910611277</v>
-      </c>
-      <c r="D17" t="n">
-        <v>366.3830082447832</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1010,12 +904,6 @@
       <c r="B18" t="n">
         <v>199</v>
       </c>
-      <c r="C18" t="n">
-        <v>22.75238214981618</v>
-      </c>
-      <c r="D18" t="n">
-        <v>378.6545782801163</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1024,12 +912,6 @@
       <c r="B19" t="n">
         <v>242</v>
       </c>
-      <c r="C19" t="n">
-        <v>65.86082950940873</v>
-      </c>
-      <c r="D19" t="n">
-        <v>421.8559169064546</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1038,12 +920,6 @@
       <c r="B20" t="n">
         <v>250</v>
       </c>
-      <c r="C20" t="n">
-        <v>69.72591583894142</v>
-      </c>
-      <c r="D20" t="n">
-        <v>427.6914762306068</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1052,12 +928,6 @@
       <c r="B21" t="n">
         <v>259</v>
       </c>
-      <c r="C21" t="n">
-        <v>74.63996487361314</v>
-      </c>
-      <c r="D21" t="n">
-        <v>434.0647454453477</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1066,12 +936,6 @@
       <c r="B22" t="n">
         <v>284</v>
       </c>
-      <c r="C22" t="n">
-        <v>104.214645518471</v>
-      </c>
-      <c r="D22" t="n">
-        <v>459.8036844145104</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1080,12 +944,6 @@
       <c r="B23" t="n">
         <v>293</v>
       </c>
-      <c r="C23" t="n">
-        <v>101.4842821476873</v>
-      </c>
-      <c r="D23" t="n">
-        <v>469.3754779635182</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1094,12 +952,6 @@
       <c r="B24" t="n">
         <v>301</v>
       </c>
-      <c r="C24" t="n">
-        <v>125.5808776790361</v>
-      </c>
-      <c r="D24" t="n">
-        <v>466.7198119945258</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1108,12 +960,6 @@
       <c r="B25" t="n">
         <v>310</v>
       </c>
-      <c r="C25" t="n">
-        <v>132.622938810532</v>
-      </c>
-      <c r="D25" t="n">
-        <v>482.909386053203</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1122,12 +968,6 @@
       <c r="B26" t="n">
         <v>318</v>
       </c>
-      <c r="C26" t="n">
-        <v>143.995361729911</v>
-      </c>
-      <c r="D26" t="n">
-        <v>497.9373683136034</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1136,12 +976,6 @@
       <c r="B27" t="n">
         <v>327</v>
       </c>
-      <c r="C27" t="n">
-        <v>147.3058420768375</v>
-      </c>
-      <c r="D27" t="n">
-        <v>499.9948731158906</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1150,12 +984,6 @@
       <c r="B28" t="n">
         <v>335</v>
       </c>
-      <c r="C28" t="n">
-        <v>160.5863248086</v>
-      </c>
-      <c r="D28" t="n">
-        <v>524.4128543358004</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1164,12 +992,6 @@
       <c r="B29" t="n">
         <v>344</v>
       </c>
-      <c r="C29" t="n">
-        <v>165.8005338144984</v>
-      </c>
-      <c r="D29" t="n">
-        <v>519.877707100435</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1178,12 +1000,6 @@
       <c r="B30" t="n">
         <v>352</v>
       </c>
-      <c r="C30" t="n">
-        <v>167.7233314549434</v>
-      </c>
-      <c r="D30" t="n">
-        <v>538.7437256008261</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1192,12 +1008,6 @@
       <c r="B31" t="n">
         <v>361</v>
       </c>
-      <c r="C31" t="n">
-        <v>183.2142780412522</v>
-      </c>
-      <c r="D31" t="n">
-        <v>535.0811445924069</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1205,12 +1015,6 @@
       </c>
       <c r="B32" t="n">
         <v>369</v>
-      </c>
-      <c r="C32" t="n">
-        <v>185.4561864078309</v>
-      </c>
-      <c r="D32" t="n">
-        <v>553.0464348969821</v>
       </c>
     </row>
   </sheetData>
